--- a/data/scheduling_DNN/predict/0.1/result24.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result24.xlsx
@@ -570,10 +570,10 @@
         <v>0.9158320426940918</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.4933180809020996</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2302122265100479</v>
+        <v>0.1785180419683456</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.083549022674561</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.4783130288124084</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1786573976278305</v>
+        <v>0.3663105964660645</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9028561115264893</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.9548192620277405</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1116729229688644</v>
+        <v>0.00270016910508275</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9068429470062256</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.9005802273750305</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1957786530256271</v>
+        <v>3.922165706171654e-05</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8921949863433838</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.92001873254776</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1548790037631989</v>
+        <v>0.0007741608424112201</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9592020511627197</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.5075294375419617</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2672707140445709</v>
+        <v>0.2040081471204758</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9031510353088379</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.5518513321876526</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2184625267982483</v>
+        <v>0.1234114840626717</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8834061622619629</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.4900189638137817</v>
       </c>
       <c r="W9" t="n">
-        <v>0.09460736066102982</v>
+        <v>0.1547534912824631</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.869596004486084</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.4678366780281067</v>
       </c>
       <c r="W10" t="n">
-        <v>0.05947991460561752</v>
+        <v>0.1614105552434921</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8622729778289795</v>
       </c>
       <c r="V11" t="n">
-        <v>0.504918098449707</v>
+        <v>0.8854120969772339</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1277025043964386</v>
+        <v>0.0005354188615456223</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8498358726501465</v>
       </c>
       <c r="V12" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.488713800907135</v>
       </c>
       <c r="W12" t="n">
-        <v>0.01282745692878962</v>
+        <v>0.1304091513156891</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8628380298614502</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.5295936465263367</v>
       </c>
       <c r="W13" t="n">
-        <v>0.04106052964925766</v>
+        <v>0.1110518202185631</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8531289100646973</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.4917464256286621</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1737408936023712</v>
+        <v>0.1305972933769226</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.8970530033111572</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.5098978877067566</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2124481797218323</v>
+        <v>0.1498890817165375</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8678269386291504</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.5925307869911194</v>
       </c>
       <c r="W16" t="n">
-        <v>0.09111423045396805</v>
+        <v>0.07578796893358231</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8710651397705078</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.9916049838066101</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2422521710395813</v>
+        <v>0.01452985405921936</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8639440536499023</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.8974688649177551</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1645720303058624</v>
+        <v>0.001123912981711328</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8588051795959473</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.5296611785888672</v>
       </c>
       <c r="W19" t="n">
-        <v>0.0534694716334343</v>
+        <v>0.1083357706665993</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8584301471710205</v>
       </c>
       <c r="V20" t="n">
-        <v>0.475897878408432</v>
+        <v>0.9502089619636536</v>
       </c>
       <c r="W20" t="n">
-        <v>0.146330937743187</v>
+        <v>0.008423350751399994</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8625400066375732</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.5919005274772644</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1657778173685074</v>
+        <v>0.07324572652578354</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5215189456939697</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.5022580623626709</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0003220334183424711</v>
+        <v>0.0003709816373884678</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5474259853363037</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.5529310703277588</v>
       </c>
       <c r="W23" t="n">
-        <v>1.670235906203743e-05</v>
+        <v>3.030596053577028e-05</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5324690341949463</v>
       </c>
       <c r="V24" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.9210514426231384</v>
       </c>
       <c r="W24" t="n">
-        <v>0.005210593808442354</v>
+        <v>0.1509962826967239</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5443720817565918</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.591216504573822</v>
       </c>
       <c r="W25" t="n">
-        <v>0.004739359486848116</v>
+        <v>0.002194399945437908</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5174431800842285</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.5296715497970581</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0104453582316637</v>
+        <v>0.0001495330216130242</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5199580192565918</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.8881715536117554</v>
       </c>
       <c r="W27" t="n">
-        <v>0.006072305142879486</v>
+        <v>0.1355812102556229</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5705280303955078</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.591776967048645</v>
       </c>
       <c r="W28" t="n">
-        <v>0.002955855568870902</v>
+        <v>0.0004515173204708844</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5360360145568848</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.5411649346351624</v>
       </c>
       <c r="W29" t="n">
-        <v>0.00129736599046737</v>
+        <v>2.630582093843259e-05</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5123929977416992</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.5918245315551758</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01148831844329834</v>
+        <v>0.006309368647634983</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5140321254730225</v>
       </c>
       <c r="V31" t="n">
-        <v>0.551807165145874</v>
+        <v>0.5323871374130249</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0014269535895437</v>
+        <v>0.0003369064652360976</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5264840126037598</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.4891873598098755</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01744231209158897</v>
+        <v>0.001391040277667344</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5515899658203125</v>
       </c>
       <c r="V33" t="n">
-        <v>0.436014860868454</v>
+        <v>0.8984288573265076</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01335760485380888</v>
+        <v>0.1202972158789635</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5347549915313721</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.4893665313720703</v>
       </c>
       <c r="W34" t="n">
-        <v>0.008283423259854317</v>
+        <v>0.002060112310573459</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5150079727172852</v>
       </c>
       <c r="V35" t="n">
-        <v>0.473088413476944</v>
+        <v>0.5299460887908936</v>
       </c>
       <c r="W35" t="n">
-        <v>0.001757249468937516</v>
+        <v>0.0002231473190477118</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.513552188873291</v>
       </c>
       <c r="V36" t="n">
-        <v>0.56818687915802</v>
+        <v>0.4926742911338806</v>
       </c>
       <c r="W36" t="n">
-        <v>0.002984949387609959</v>
+        <v>0.0004358866135589778</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5116209983825684</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.4872644543647766</v>
       </c>
       <c r="W37" t="n">
-        <v>0.005681515205651522</v>
+        <v>0.0005932412459515035</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5144779682159424</v>
       </c>
       <c r="V38" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.4901860952377319</v>
       </c>
       <c r="W38" t="n">
-        <v>0.04717886075377464</v>
+        <v>0.0005900951218791306</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5155918598175049</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.4967679381370544</v>
       </c>
       <c r="W39" t="n">
-        <v>0.001391911879181862</v>
+        <v>0.000354340038029477</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5169968605041504</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.4940720796585083</v>
       </c>
       <c r="W40" t="n">
-        <v>0.00402008555829525</v>
+        <v>0.0005255455616861582</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5230939388275146</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.8749150037765503</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0009283054969273508</v>
+        <v>0.1237780600786209</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3878488540649414</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.5234305262565613</v>
       </c>
       <c r="W42" t="n">
-        <v>0.00228216010145843</v>
+        <v>0.01838238909840584</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4163708686828613</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.4875660538673401</v>
       </c>
       <c r="W43" t="n">
-        <v>0.01784800365567207</v>
+        <v>0.005068754311650991</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3840310573577881</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.5043501257896423</v>
       </c>
       <c r="W44" t="n">
-        <v>0.008557925932109356</v>
+        <v>0.01447667833417654</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.4026141166687012</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.4888768792152405</v>
       </c>
       <c r="W45" t="n">
-        <v>0.001116444007493556</v>
+        <v>0.007441264111548662</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3885538578033447</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.4684697389602661</v>
       </c>
       <c r="W46" t="n">
-        <v>0.05407546833157539</v>
+        <v>0.006386548280715942</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3955121040344238</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.4685730934143066</v>
       </c>
       <c r="W47" t="n">
-        <v>0.005756940692663193</v>
+        <v>0.005337908398360014</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.390099048614502</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.9477347731590271</v>
       </c>
       <c r="W48" t="n">
-        <v>0.05951689928770065</v>
+        <v>0.3109576106071472</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3808498382568359</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.517414391040802</v>
       </c>
       <c r="W49" t="n">
-        <v>0.00304407742805779</v>
+        <v>0.01864987798035145</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3873260021209717</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.506460428237915</v>
       </c>
       <c r="W50" t="n">
-        <v>0.004986296407878399</v>
+        <v>0.01419301144778728</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3878731727600098</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.8975157737731934</v>
       </c>
       <c r="W51" t="n">
-        <v>0.006854986306279898</v>
+        <v>0.2597355842590332</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4749269485473633</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.481755256652832</v>
       </c>
       <c r="W52" t="n">
-        <v>2.04559928533854e-05</v>
+        <v>4.662579158321023e-05</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3870069980621338</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.4688675403594971</v>
       </c>
       <c r="W53" t="n">
-        <v>8.422552491538227e-05</v>
+        <v>0.006701148580759764</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3869731426239014</v>
       </c>
       <c r="V54" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.8751575350761414</v>
       </c>
       <c r="W54" t="n">
-        <v>0.1297536045312881</v>
+        <v>0.2383240014314651</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3853850364685059</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.4952417016029358</v>
       </c>
       <c r="W55" t="n">
-        <v>0.002570817247033119</v>
+        <v>0.01206848677247763</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3874011039733887</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.4919622540473938</v>
       </c>
       <c r="W56" t="n">
-        <v>0.006150820292532444</v>
+        <v>0.0109330341219902</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3864510059356689</v>
       </c>
       <c r="V57" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.5538879632949829</v>
       </c>
       <c r="W57" t="n">
-        <v>0.07324931025505066</v>
+        <v>0.02803513407707214</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.4420790672302246</v>
       </c>
       <c r="V58" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.5021238923072815</v>
       </c>
       <c r="W58" t="n">
-        <v>0.09722942858934402</v>
+        <v>0.003605381119996309</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3854479789733887</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.5089954733848572</v>
       </c>
       <c r="W59" t="n">
-        <v>0.02861075289547443</v>
+        <v>0.01526398304849863</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3869140148162842</v>
       </c>
       <c r="V60" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.4886856079101562</v>
       </c>
       <c r="W60" t="n">
-        <v>0.05647504702210426</v>
+        <v>0.01035745721310377</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3865559101104736</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.5093353986740112</v>
       </c>
       <c r="W61" t="n">
-        <v>0.01310239918529987</v>
+        <v>0.01507480256259441</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8937709331512451</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.4895207285881042</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1659074574708939</v>
+        <v>0.1634182333946228</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8729770183563232</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.4803250432014465</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1424569338560104</v>
+        <v>0.1541755795478821</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8688240051269531</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.9112926721572876</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1690281331539154</v>
+        <v>0.001803587656468153</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.880122184753418</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.5294726490974426</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1785963475704193</v>
+        <v>0.1229550987482071</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.923098087310791</v>
       </c>
       <c r="V66" t="n">
-        <v>0.390147477388382</v>
+        <v>0.4780316352844238</v>
       </c>
       <c r="W66" t="n">
-        <v>0.28403639793396</v>
+        <v>0.1980841457843781</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8765921592712402</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.4690547585487366</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1941114515066147</v>
+        <v>0.166086733341217</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.886073112487793</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.4963293671607971</v>
       </c>
       <c r="W68" t="n">
-        <v>0.09797957539558411</v>
+        <v>0.1519001871347427</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8742110729217529</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.48154616355896</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1022045835852623</v>
+        <v>0.1541857272386551</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.9114389419555664</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.8958796858787537</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1980335563421249</v>
+        <v>0.0002420904493192211</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.863980770111084</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.5536028146743774</v>
       </c>
       <c r="W71" t="n">
-        <v>0.0914822444319725</v>
+        <v>0.09633447229862213</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8579771518707275</v>
       </c>
       <c r="V72" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.5266697406768799</v>
       </c>
       <c r="W72" t="n">
-        <v>0.002116406103596091</v>
+        <v>0.1097645983099937</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8670721054077148</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.5071119666099548</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1861634850502014</v>
+        <v>0.1295713037252426</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.9190080165863037</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.900965690612793</v>
       </c>
       <c r="W74" t="n">
-        <v>0.134650319814682</v>
+        <v>0.0003255255287513137</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8657910823822021</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.5104268193244934</v>
       </c>
       <c r="W75" t="n">
-        <v>0.184704914689064</v>
+        <v>0.1262837648391724</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8570520877838135</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.4779340624809265</v>
       </c>
       <c r="W76" t="n">
-        <v>0.09449314326047897</v>
+        <v>0.1437304764986038</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8620641231536865</v>
       </c>
       <c r="V77" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.5358552932739258</v>
       </c>
       <c r="W77" t="n">
-        <v>0.2335013747215271</v>
+        <v>0.1064122021198273</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.9132330417633057</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.5250172019004822</v>
       </c>
       <c r="W78" t="n">
-        <v>0.08143718540668488</v>
+        <v>0.1507115364074707</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8653810024261475</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.9907354116439819</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1843472719192505</v>
+        <v>0.01571372710168362</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8517961502075195</v>
       </c>
       <c r="V80" t="n">
-        <v>0.624285101890564</v>
+        <v>0.8998764157295227</v>
       </c>
       <c r="W80" t="n">
-        <v>0.05176127701997757</v>
+        <v>0.002311711898073554</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8566889762878418</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.5920383334159851</v>
       </c>
       <c r="W81" t="n">
-        <v>0.05390672013163567</v>
+        <v>0.07003996521234512</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.6077280044555664</v>
       </c>
       <c r="V82" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.5548256635665894</v>
       </c>
       <c r="W82" t="n">
-        <v>0.04358084499835968</v>
+        <v>0.002798657631501555</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5324530601501465</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.5068996548652649</v>
       </c>
       <c r="W83" t="n">
-        <v>0.009351065382361412</v>
+        <v>0.000652976508717984</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5195989608764648</v>
       </c>
       <c r="V84" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.4782375693321228</v>
       </c>
       <c r="W84" t="n">
-        <v>0.01889416761696339</v>
+        <v>0.001710764714516699</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5172631740570068</v>
       </c>
       <c r="V85" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.910068690776825</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0160345695912838</v>
+        <v>0.1542961746454239</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5184378623962402</v>
       </c>
       <c r="V86" t="n">
-        <v>0.816550612449646</v>
+        <v>0.9112344980239868</v>
       </c>
       <c r="W86" t="n">
-        <v>0.08887121081352234</v>
+        <v>0.1542892009019852</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5135190486907959</v>
       </c>
       <c r="V87" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.5128166079521179</v>
       </c>
       <c r="W87" t="n">
-        <v>0.01696735434234142</v>
+        <v>4.934229878017504e-07</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5161938667297363</v>
       </c>
       <c r="V88" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.9516597390174866</v>
       </c>
       <c r="W88" t="n">
-        <v>0.001786443404853344</v>
+        <v>0.1896305233240128</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.51385498046875</v>
       </c>
       <c r="V89" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.5526145100593567</v>
       </c>
       <c r="W89" t="n">
-        <v>0.0001419352338416502</v>
+        <v>0.001502301078289747</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.52976393699646</v>
       </c>
       <c r="V90" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.9004659056663513</v>
       </c>
       <c r="W90" t="n">
-        <v>0.02058030292391777</v>
+        <v>0.1374199539422989</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5083980560302734</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.5294452309608459</v>
       </c>
       <c r="W91" t="n">
-        <v>4.41349548054859e-05</v>
+        <v>0.0004429835826158524</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5183050632476807</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.4922580718994141</v>
       </c>
       <c r="W92" t="n">
-        <v>0.006816346198320389</v>
+        <v>0.0006784457364119589</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5741360187530518</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.8746844530105591</v>
       </c>
       <c r="W93" t="n">
-        <v>0.01907582394778728</v>
+        <v>0.0903293639421463</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5157358646392822</v>
       </c>
       <c r="V94" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.5167222619056702</v>
       </c>
       <c r="W94" t="n">
-        <v>0.01174381282180548</v>
+        <v>9.729795920065953e-07</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5177850723266602</v>
       </c>
       <c r="V95" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.5295639634132385</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01916325278580189</v>
+        <v>0.0001387422817060724</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5170001983642578</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.509912371635437</v>
       </c>
       <c r="W96" t="n">
-        <v>0.003827835200354457</v>
+        <v>5.023728954256512e-05</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5156979560852051</v>
       </c>
       <c r="V97" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.5105506777763367</v>
       </c>
       <c r="W97" t="n">
-        <v>0.048904649913311</v>
+        <v>2.649447378644254e-05</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5150308609008789</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.4712743163108826</v>
       </c>
       <c r="W98" t="n">
-        <v>0.001454382203519344</v>
+        <v>0.00191463518422097</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5117359161376953</v>
       </c>
       <c r="V99" t="n">
-        <v>0.57613205909729</v>
+        <v>0.4782834649085999</v>
       </c>
       <c r="W99" t="n">
-        <v>0.004146863240748644</v>
+        <v>0.001119066495448351</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5169169902801514</v>
       </c>
       <c r="V100" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.5218733549118042</v>
       </c>
       <c r="W100" t="n">
-        <v>0.02003668993711472</v>
+        <v>2.456555012031458e-05</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5151300430297852</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.5289174318313599</v>
       </c>
       <c r="W101" t="n">
-        <v>0.006258122622966766</v>
+        <v>0.0001900920906336978</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4011440277099609</v>
       </c>
       <c r="V102" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.4942330121994019</v>
       </c>
       <c r="W102" t="n">
-        <v>0.1689375787973404</v>
+        <v>0.008665558882057667</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3933029174804688</v>
       </c>
       <c r="V103" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.966889500617981</v>
       </c>
       <c r="W103" t="n">
-        <v>0.04993078485131264</v>
+        <v>0.3290015757083893</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4623069763183594</v>
       </c>
       <c r="V104" t="n">
-        <v>0.471180647611618</v>
+        <v>0.8810484409332275</v>
       </c>
       <c r="W104" t="n">
-        <v>7.874204311519861e-05</v>
+        <v>0.1753444075584412</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4016380310058594</v>
       </c>
       <c r="V105" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.9909483790397644</v>
       </c>
       <c r="W105" t="n">
-        <v>0.05782177671790123</v>
+        <v>0.3472866714000702</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3869550228118896</v>
       </c>
       <c r="V106" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.4690273404121399</v>
       </c>
       <c r="W106" t="n">
-        <v>0.07294808328151703</v>
+        <v>0.006735865492373705</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3876049518585205</v>
       </c>
       <c r="V107" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.9204395413398743</v>
       </c>
       <c r="W107" t="n">
-        <v>0.06543157249689102</v>
+        <v>0.2839126884937286</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3848268985748291</v>
       </c>
       <c r="V108" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.4680607318878174</v>
       </c>
       <c r="W108" t="n">
-        <v>0.1862533241510391</v>
+        <v>0.006927871145308018</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3837590217590332</v>
       </c>
       <c r="V109" t="n">
-        <v>0.551541268825531</v>
+        <v>0.899590790271759</v>
       </c>
       <c r="W109" t="n">
-        <v>0.02815088257193565</v>
+        <v>0.2660824060440063</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3923969268798828</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.5293763279914856</v>
       </c>
       <c r="W110" t="n">
-        <v>0.001933768740855157</v>
+        <v>0.01876335591077805</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3905560970306396</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.532238781452179</v>
       </c>
       <c r="W111" t="n">
-        <v>0.02648715674877167</v>
+        <v>0.02007398381829262</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4197750091552734</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.4897891283035278</v>
       </c>
       <c r="W112" t="n">
-        <v>0.07040270417928696</v>
+        <v>0.00490197679027915</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3878428936004639</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.5295357704162598</v>
       </c>
       <c r="W113" t="n">
-        <v>0.006167454645037651</v>
+        <v>0.02007687091827393</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3895189762115479</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.4689179062843323</v>
       </c>
       <c r="W114" t="n">
-        <v>0.02643512934446335</v>
+        <v>0.006304190028458834</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3900959491729736</v>
       </c>
       <c r="V115" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.8780588507652283</v>
       </c>
       <c r="W115" t="n">
-        <v>0.01586964353919029</v>
+        <v>0.2381078004837036</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3928630352020264</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.9249127507209778</v>
       </c>
       <c r="W116" t="n">
-        <v>0.004279901273548603</v>
+        <v>0.2830769121646881</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3898940086364746</v>
       </c>
       <c r="V117" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.918801486492157</v>
       </c>
       <c r="W117" t="n">
-        <v>0.05479677394032478</v>
+        <v>0.2797431349754333</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4062461853027344</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.510656476020813</v>
       </c>
       <c r="W118" t="n">
-        <v>0.02533606626093388</v>
+        <v>0.01090150885283947</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3928899765014648</v>
       </c>
       <c r="V119" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.4875600934028625</v>
       </c>
       <c r="W119" t="n">
-        <v>0.1813820600509644</v>
+        <v>0.008962430991232395</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4058489799499512</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.9616321325302124</v>
       </c>
       <c r="W120" t="n">
-        <v>0.02920089848339558</v>
+        <v>0.3088949024677277</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3893370628356934</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.9242905378341675</v>
       </c>
       <c r="W121" t="n">
-        <v>0.02657684683799744</v>
+        <v>0.2861752212047577</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.9344758987426758</v>
       </c>
       <c r="V122" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.8801947832107544</v>
       </c>
       <c r="W122" t="n">
-        <v>0.09827174246311188</v>
+        <v>0.002946439431980252</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.923220157623291</v>
       </c>
       <c r="V123" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.4890623092651367</v>
       </c>
       <c r="W123" t="n">
-        <v>0.03588810563087463</v>
+        <v>0.1884930431842804</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.886603832244873</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.4807373285293579</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1109271571040154</v>
+        <v>0.1647276133298874</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8658430576324463</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.4946234822273254</v>
       </c>
       <c r="W125" t="n">
-        <v>0.05860946699976921</v>
+        <v>0.1378039717674255</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.9301521778106689</v>
       </c>
       <c r="V126" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.9430764317512512</v>
       </c>
       <c r="W126" t="n">
-        <v>0.0925668329000473</v>
+        <v>0.0001670363417360932</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8670220375061035</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.4876435399055481</v>
       </c>
       <c r="W127" t="n">
-        <v>0.09936612844467163</v>
+        <v>0.143928050994873</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8588049411773682</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.505764365196228</v>
       </c>
       <c r="W128" t="n">
-        <v>0.04486766457557678</v>
+        <v>0.1246376484632492</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8632090091705322</v>
       </c>
       <c r="V129" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.5044015049934387</v>
       </c>
       <c r="W129" t="n">
-        <v>0.04106101021170616</v>
+        <v>0.1287428289651871</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9286599159240723</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.885528028011322</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1414132863283157</v>
+        <v>0.001860359800048172</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8627760410308838</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.5291970372200012</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1496267020702362</v>
+        <v>0.1112749502062798</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8678469657897949</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.4807721376419067</v>
       </c>
       <c r="W132" t="n">
-        <v>0.089461550116539</v>
+        <v>0.1498269289731979</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8895740509033203</v>
       </c>
       <c r="V133" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.5920959711074829</v>
       </c>
       <c r="W133" t="n">
-        <v>0.04060736671090126</v>
+        <v>0.08849320560693741</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.9131011962890625</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.9435111880302429</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1998973488807678</v>
+        <v>0.0009247675770893693</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8853030204772949</v>
       </c>
       <c r="V135" t="n">
-        <v>0.474732518196106</v>
+        <v>0.5874763131141663</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1685681343078613</v>
+        <v>0.08870074898004532</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8666760921478271</v>
       </c>
       <c r="V136" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.8997414708137512</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1315743327140808</v>
+        <v>0.001093319267965853</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8663780689239502</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.9001505970954895</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1293275505304337</v>
+        <v>0.001140583655796945</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9638628959655762</v>
       </c>
       <c r="V138" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.473304808139801</v>
       </c>
       <c r="W138" t="n">
-        <v>0.3426001965999603</v>
+        <v>0.2406472414731979</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8622651100158691</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.9034273028373718</v>
       </c>
       <c r="W139" t="n">
-        <v>0.05811131373047829</v>
+        <v>0.001694326172582805</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8692471981048584</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.5248978137969971</v>
       </c>
       <c r="W140" t="n">
-        <v>0.05998184159398079</v>
+        <v>0.1185764968395233</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8623571395874023</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.4853613972663879</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1817601174116135</v>
+        <v>0.1421257853507996</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.6044659614562988</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.955710232257843</v>
       </c>
       <c r="W142" t="n">
-        <v>0.02275225147604942</v>
+        <v>0.1233725398778915</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5224449634552002</v>
       </c>
       <c r="V143" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.4683506488800049</v>
       </c>
       <c r="W143" t="n">
-        <v>0.003396449610590935</v>
+        <v>0.002926194807514548</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5226070880889893</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.5387960076332092</v>
       </c>
       <c r="W144" t="n">
-        <v>0.0007891820860095322</v>
+        <v>0.0002620811283122748</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5178959369659424</v>
       </c>
       <c r="V145" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.5917317271232605</v>
       </c>
       <c r="W145" t="n">
-        <v>0.01931137405335903</v>
+        <v>0.00545172393321991</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5190908908843994</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.5092694759368896</v>
       </c>
       <c r="W146" t="n">
-        <v>0.002482989337295294</v>
+        <v>9.646019316278398e-05</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5860030651092529</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.4907553195953369</v>
       </c>
       <c r="W147" t="n">
-        <v>0.02249524556100368</v>
+        <v>0.009072133339941502</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5164039134979248</v>
       </c>
       <c r="V148" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.9034896492958069</v>
       </c>
       <c r="W148" t="n">
-        <v>0.09408287703990936</v>
+        <v>0.1498353630304337</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5191459655761719</v>
       </c>
       <c r="V149" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.5277476906776428</v>
       </c>
       <c r="W149" t="n">
-        <v>0.004087320063263178</v>
+        <v>7.398967136396095e-05</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5155618190765381</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.5512743592262268</v>
       </c>
       <c r="W150" t="n">
-        <v>0.001563481753692031</v>
+        <v>0.001275385497137904</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5148890018463135</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.4721686244010925</v>
       </c>
       <c r="W151" t="n">
-        <v>0.003165243426337838</v>
+        <v>0.001825030660256743</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5184359550476074</v>
       </c>
       <c r="V152" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.9291863441467285</v>
       </c>
       <c r="W152" t="n">
-        <v>0.0520041361451149</v>
+        <v>0.1687158793210983</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5217199325561523</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.9419894814491272</v>
       </c>
       <c r="W153" t="n">
-        <v>0.002600546926259995</v>
+        <v>0.1766264885663986</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5131559371948242</v>
       </c>
       <c r="V154" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.5296868681907654</v>
       </c>
       <c r="W154" t="n">
-        <v>0.01514272671192884</v>
+        <v>0.0002732716675382107</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.518787145614624</v>
       </c>
       <c r="V155" t="n">
-        <v>0.436027318239212</v>
+        <v>0.4884556531906128</v>
       </c>
       <c r="W155" t="n">
-        <v>0.006849188823252916</v>
+        <v>0.0009199994383379817</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5176479816436768</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.8886919617652893</v>
       </c>
       <c r="W156" t="n">
-        <v>0.00197592843323946</v>
+        <v>0.137673631310463</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5177152156829834</v>
       </c>
       <c r="V157" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.5103686451911926</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0004626520967576653</v>
+        <v>5.397209679358639e-05</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5725910663604736</v>
       </c>
       <c r="V158" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.5122714042663574</v>
       </c>
       <c r="W158" t="n">
-        <v>1.217740282299928e-05</v>
+        <v>0.003638461697846651</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5187699794769287</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.9186918139457703</v>
       </c>
       <c r="W159" t="n">
-        <v>0.002396635245531797</v>
+        <v>0.1599374711513519</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5169379711151123</v>
       </c>
       <c r="V160" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.5919528007507324</v>
       </c>
       <c r="W160" t="n">
-        <v>0.01147153601050377</v>
+        <v>0.005627224687486887</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5167171955108643</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.5091354250907898</v>
       </c>
       <c r="W161" t="n">
-        <v>0.001766305998899043</v>
+        <v>5.748324110754766e-05</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3881561756134033</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.5375730991363525</v>
       </c>
       <c r="W162" t="n">
-        <v>0.05568848922848701</v>
+        <v>0.0223254170268774</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3847639560699463</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.4798047542572021</v>
       </c>
       <c r="W163" t="n">
-        <v>0.005347772035747766</v>
+        <v>0.009032753296196461</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.4290227890014648</v>
       </c>
       <c r="V164" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.9222362637519836</v>
       </c>
       <c r="W164" t="n">
-        <v>0.03554157167673111</v>
+        <v>0.243259534239769</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3951821327209473</v>
       </c>
       <c r="V165" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.5531902313232422</v>
       </c>
       <c r="W165" t="n">
-        <v>0.1178622469305992</v>
+        <v>0.02496655844151974</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3900890350341797</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.9245519042015076</v>
       </c>
       <c r="W166" t="n">
-        <v>0.05346506088972092</v>
+        <v>0.2856505513191223</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3875689506530762</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.9544756412506104</v>
       </c>
       <c r="W167" t="n">
-        <v>0.04718062281608582</v>
+        <v>0.3213832080364227</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3894119262695312</v>
       </c>
       <c r="V168" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.8869874477386475</v>
       </c>
       <c r="W168" t="n">
-        <v>8.50645374157466e-05</v>
+        <v>0.2475813925266266</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3889319896697998</v>
       </c>
       <c r="V169" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.4904725551605225</v>
       </c>
       <c r="W169" t="n">
-        <v>0.09007122367620468</v>
+        <v>0.01031048689037561</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.4485461711883545</v>
       </c>
       <c r="V170" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.539155125617981</v>
       </c>
       <c r="W170" t="n">
-        <v>0.002829758683219552</v>
+        <v>0.008209982886910439</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3905320167541504</v>
       </c>
       <c r="V171" t="n">
-        <v>0.458252340555191</v>
+        <v>0.489011824131012</v>
       </c>
       <c r="W171" t="n">
-        <v>0.004586042370647192</v>
+        <v>0.009698272682726383</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3975460529327393</v>
       </c>
       <c r="V172" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.4681506752967834</v>
       </c>
       <c r="W172" t="n">
-        <v>0.175721600651741</v>
+        <v>0.004985012579709291</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3932430744171143</v>
       </c>
       <c r="V173" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.5295416712760925</v>
       </c>
       <c r="W173" t="n">
-        <v>0.06375284492969513</v>
+        <v>0.01857730746269226</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3954341411590576</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.5913864374160767</v>
       </c>
       <c r="W174" t="n">
-        <v>0.003858419368043542</v>
+        <v>0.03839730098843575</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3906009197235107</v>
       </c>
       <c r="V175" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.5083560347557068</v>
       </c>
       <c r="W175" t="n">
-        <v>0.06406252831220627</v>
+        <v>0.01386626716703176</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.402489185333252</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.9518877863883972</v>
       </c>
       <c r="W176" t="n">
-        <v>0.001097803586162627</v>
+        <v>0.3018388152122498</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.407020092010498</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.467336118221283</v>
       </c>
       <c r="W177" t="n">
-        <v>0.0008216056739911437</v>
+        <v>0.003638023044914007</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4001131057739258</v>
       </c>
       <c r="V178" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.4680877923965454</v>
       </c>
       <c r="W178" t="n">
-        <v>0.05081895738840103</v>
+        <v>0.004620558116585016</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3924248218536377</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.5295720100402832</v>
       </c>
       <c r="W179" t="n">
-        <v>0.004242517985403538</v>
+        <v>0.01880935207009315</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3933250904083252</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.8984476327896118</v>
       </c>
       <c r="W180" t="n">
-        <v>0.004151747096329927</v>
+        <v>0.2551487684249878</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4109649658203125</v>
       </c>
       <c r="V181" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.9328742623329163</v>
       </c>
       <c r="W181" t="n">
-        <v>0.02027012966573238</v>
+        <v>0.2723893225193024</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.930757999420166</v>
       </c>
       <c r="V182" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.5042528510093689</v>
       </c>
       <c r="W182" t="n">
-        <v>0.06089885905385017</v>
+        <v>0.1819066405296326</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9007179737091064</v>
       </c>
       <c r="V183" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.4923148155212402</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1805992722511292</v>
+        <v>0.1667931377887726</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8538830280303955</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.4799568653106689</v>
       </c>
       <c r="W184" t="n">
-        <v>0.124390222132206</v>
+        <v>0.1398207694292068</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8625741004943848</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.9448212385177612</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1638921648263931</v>
+        <v>0.006764591671526432</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.9210469722747803</v>
       </c>
       <c r="V186" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.9103328585624695</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2902207970619202</v>
+        <v>0.0001147922303061932</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8796489238739014</v>
       </c>
       <c r="V187" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.5524210929870605</v>
       </c>
       <c r="W187" t="n">
-        <v>0.02395582385361195</v>
+        <v>0.1070780530571938</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8608701229095459</v>
       </c>
       <c r="V188" t="n">
-        <v>0.624763011932373</v>
+        <v>0.9416562914848328</v>
       </c>
       <c r="W188" t="n">
-        <v>0.05574656650424004</v>
+        <v>0.006526404991745949</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8589789867401123</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.8936315774917603</v>
       </c>
       <c r="W189" t="n">
-        <v>0.08966636657714844</v>
+        <v>0.001200802042149007</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.9136989116668701</v>
       </c>
       <c r="V190" t="n">
-        <v>0.551414966583252</v>
+        <v>0.529468834400177</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1312496513128281</v>
+        <v>0.1476327478885651</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.908707857131958</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.4746100306510925</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1870824247598648</v>
+        <v>0.1884409189224243</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8630239963531494</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.5042452812194824</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1676454842090607</v>
+        <v>0.1287221610546112</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.854511022567749</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.4746752381324768</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1095350980758667</v>
+        <v>0.1442752182483673</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.9141519069671631</v>
       </c>
       <c r="V194" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.5322561264038086</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1965968757867813</v>
+        <v>0.1458443850278854</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.863649845123291</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.5917814970016479</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1648551374673843</v>
+        <v>0.07391239702701569</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8595011234283447</v>
       </c>
       <c r="V196" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.468168318271637</v>
       </c>
       <c r="W196" t="n">
-        <v>0.0411512590944767</v>
+        <v>0.1531413644552231</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8564651012420654</v>
       </c>
       <c r="V197" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.9511554837226868</v>
       </c>
       <c r="W197" t="n">
-        <v>0.001598137780092657</v>
+        <v>0.008966268971562386</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.91792893409729</v>
       </c>
       <c r="V198" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.5294947028160095</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2873149216175079</v>
+        <v>0.1508811563253403</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8616671562194824</v>
       </c>
       <c r="V199" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.5040224194526672</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1577464491128922</v>
+        <v>0.1279097646474838</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8541388511657715</v>
       </c>
       <c r="V200" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.9003711342811584</v>
       </c>
       <c r="W200" t="n">
-        <v>0.09088404476642609</v>
+        <v>0.00213742395862937</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8800570964813232</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.5916967391967773</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1412988156080246</v>
+        <v>0.08315169811248779</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5678768157958984</v>
       </c>
       <c r="V202" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.9952811002731323</v>
       </c>
       <c r="W202" t="n">
-        <v>0.003500285791233182</v>
+        <v>0.1826744228601456</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.514833927154541</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.5651661157608032</v>
       </c>
       <c r="W203" t="n">
-        <v>0.001809414476156235</v>
+        <v>0.00253332918509841</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5260651111602783</v>
       </c>
       <c r="V204" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.5320168137550354</v>
       </c>
       <c r="W204" t="n">
-        <v>0.0003765820583794266</v>
+        <v>3.542276317602955e-05</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.517125129699707</v>
       </c>
       <c r="V205" t="n">
-        <v>0.569115161895752</v>
+        <v>0.4917972683906555</v>
       </c>
       <c r="W205" t="n">
-        <v>0.002702963538467884</v>
+        <v>0.0006415005773305893</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5141780376434326</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.5318886041641235</v>
       </c>
       <c r="W206" t="n">
-        <v>0.00610777735710144</v>
+        <v>0.0003136641753371805</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5359299182891846</v>
       </c>
       <c r="V207" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.6016833186149597</v>
       </c>
       <c r="W207" t="n">
-        <v>0.008479692041873932</v>
+        <v>0.004323509521782398</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5157561302185059</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.5323837995529175</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01179805584251881</v>
+        <v>0.0002764793753158301</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5315990447998047</v>
       </c>
       <c r="V209" t="n">
-        <v>0.476378470659256</v>
+        <v>0.9965521097183228</v>
       </c>
       <c r="W209" t="n">
-        <v>0.003049311693757772</v>
+        <v>0.2161813527345657</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.51698899269104</v>
       </c>
       <c r="V210" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.537554144859314</v>
       </c>
       <c r="W210" t="n">
-        <v>0.09104223549365997</v>
+        <v>0.0004229254845995456</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5223329067230225</v>
       </c>
       <c r="V211" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.902162492275238</v>
       </c>
       <c r="W211" t="n">
-        <v>0.02273571118712425</v>
+        <v>0.1442705094814301</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.520453929901123</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.587867259979248</v>
       </c>
       <c r="W212" t="n">
-        <v>0.0002862067485693842</v>
+        <v>0.004544557072222233</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5225491523742676</v>
       </c>
       <c r="V213" t="n">
-        <v>0.618610143661499</v>
+        <v>0.5919970870018005</v>
       </c>
       <c r="W213" t="n">
-        <v>0.009227714501321316</v>
+        <v>0.004823015537112951</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5179979801177979</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.5268997550010681</v>
       </c>
       <c r="W214" t="n">
-        <v>0.002837094012647867</v>
+        <v>7.924159581307322e-05</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5212459564208984</v>
       </c>
       <c r="V215" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.910050630569458</v>
       </c>
       <c r="W215" t="n">
-        <v>0.08732323348522186</v>
+        <v>0.1511690765619278</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5182290077209473</v>
       </c>
       <c r="V216" t="n">
-        <v>0.435836523771286</v>
+        <v>0.8777132034301758</v>
       </c>
       <c r="W216" t="n">
-        <v>0.006788521539419889</v>
+        <v>0.1292288899421692</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5201139450073242</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.6249286532402039</v>
       </c>
       <c r="W217" t="n">
-        <v>0.0007452119025401771</v>
+        <v>0.01098612323403358</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5731589794158936</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.5284381508827209</v>
       </c>
       <c r="W218" t="n">
-        <v>0.01880898326635361</v>
+        <v>0.001999952597543597</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5226938724517822</v>
       </c>
       <c r="V219" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.5009039640426636</v>
       </c>
       <c r="W219" t="n">
-        <v>0.00918683223426342</v>
+        <v>0.0004748001229017973</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5205881595611572</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.4921205639839172</v>
       </c>
       <c r="W220" t="n">
-        <v>0.004193792119622231</v>
+        <v>0.0008104040171019733</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5168888568878174</v>
       </c>
       <c r="V221" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.4749077558517456</v>
       </c>
       <c r="W221" t="n">
-        <v>0.09077159315347672</v>
+        <v>0.001762412837706506</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3887159824371338</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.540674090385437</v>
       </c>
       <c r="W222" t="n">
-        <v>0.00730267446488142</v>
+        <v>0.0230912659317255</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3898229598999023</v>
       </c>
       <c r="V223" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.4636626839637756</v>
       </c>
       <c r="W223" t="n">
-        <v>7.550262637323613e-08</v>
+        <v>0.00545230507850647</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4194519519805908</v>
       </c>
       <c r="V224" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.5272818207740784</v>
       </c>
       <c r="W224" t="n">
-        <v>0.0545533187687397</v>
+        <v>0.01162728015333414</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3898060321807861</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.4742027521133423</v>
       </c>
       <c r="W225" t="n">
-        <v>0.004600989166647196</v>
+        <v>0.007122806273400784</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3921728134155273</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.9313653707504272</v>
       </c>
       <c r="W226" t="n">
-        <v>0.01257659588009119</v>
+        <v>0.2907286286354065</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3946051597595215</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.5318644642829895</v>
       </c>
       <c r="W227" t="n">
-        <v>0.004079028498381376</v>
+        <v>0.018840117380023</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3947889804840088</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.5322517156600952</v>
       </c>
       <c r="W228" t="n">
-        <v>0.008560683578252792</v>
+        <v>0.01889600418508053</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4008910655975342</v>
       </c>
       <c r="V229" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.5395461916923523</v>
       </c>
       <c r="W229" t="n">
-        <v>0.01009373087435961</v>
+        <v>0.01922524347901344</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.4470059871673584</v>
       </c>
       <c r="V230" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.4807413220405579</v>
       </c>
       <c r="W230" t="n">
-        <v>0.1331600099802017</v>
+        <v>0.001138072810135782</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3917229175567627</v>
       </c>
       <c r="V231" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.5255979895591736</v>
       </c>
       <c r="W231" t="n">
-        <v>0.0548151396214962</v>
+        <v>0.0179225355386734</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.395392894744873</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.8973738551139832</v>
       </c>
       <c r="W232" t="n">
-        <v>0.02444037050008774</v>
+        <v>0.2519848942756653</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3932290077209473</v>
       </c>
       <c r="V233" t="n">
-        <v>0.630542516708374</v>
+        <v>0.49034583568573</v>
       </c>
       <c r="W233" t="n">
-        <v>0.05631770193576813</v>
+        <v>0.009431677870452404</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3940830230712891</v>
       </c>
       <c r="V234" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.5159609913825989</v>
       </c>
       <c r="W234" t="n">
-        <v>0.1841183453798294</v>
+        <v>0.01485423929989338</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3967359066009521</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.4950420260429382</v>
       </c>
       <c r="W235" t="n">
-        <v>0.01150987111032009</v>
+        <v>0.009664093144237995</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4329109191894531</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.8754863142967224</v>
       </c>
       <c r="W236" t="n">
-        <v>0.03701348602771759</v>
+        <v>0.1958729773759842</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3919219970703125</v>
       </c>
       <c r="V237" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.5295703411102295</v>
       </c>
       <c r="W237" t="n">
-        <v>0.01262576133012772</v>
+        <v>0.01894706673920155</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3912811279296875</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.4803774952888489</v>
       </c>
       <c r="W238" t="n">
-        <v>0.03245287388563156</v>
+        <v>0.007938162423670292</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3863692283630371</v>
       </c>
       <c r="V239" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.5925859808921814</v>
       </c>
       <c r="W239" t="n">
-        <v>0.05523587763309479</v>
+        <v>0.04252534732222557</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3880109786987305</v>
       </c>
       <c r="V240" t="n">
-        <v>0.7251691818237305</v>
+        <v>1.002588868141174</v>
       </c>
       <c r="W240" t="n">
-        <v>0.1136756539344788</v>
+        <v>0.377705991268158</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3915109634399414</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.8808853030204773</v>
       </c>
       <c r="W241" t="n">
-        <v>0.006285722833126783</v>
+        <v>0.2394872456789017</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9688770771026611</v>
       </c>
       <c r="V242" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.9310068488121033</v>
       </c>
       <c r="W242" t="n">
-        <v>0.3486893177032471</v>
+        <v>0.001434154226444662</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8873858451843262</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.9517983198165894</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1981821209192276</v>
+        <v>0.0041489670984447</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8699460029602051</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.9026531577110291</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1693059206008911</v>
+        <v>0.0010697579709813</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8767621517181396</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.8891320824623108</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1074480190873146</v>
+        <v>0.0001530151930637658</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.924044132232666</v>
       </c>
       <c r="V246" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.9277794361114502</v>
       </c>
       <c r="W246" t="n">
-        <v>0.03620564565062523</v>
+        <v>1.395249546476407e-05</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8731060028076172</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.9016699194908142</v>
       </c>
       <c r="W247" t="n">
-        <v>0.03546713292598724</v>
+        <v>0.0008158973651006818</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8666858673095703</v>
       </c>
       <c r="V248" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.5058984756469727</v>
       </c>
       <c r="W248" t="n">
-        <v>0.08438674360513687</v>
+        <v>0.130167543888092</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8703219890594482</v>
       </c>
       <c r="V249" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.5144922137260437</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1633519232273102</v>
+        <v>0.1266148239374161</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9223520755767822</v>
       </c>
       <c r="V250" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.5154523253440857</v>
       </c>
       <c r="W250" t="n">
-        <v>0.2148474156856537</v>
+        <v>0.1655674129724503</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8985769748687744</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.8826573491096497</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1944079250097275</v>
+        <v>0.0002534344966989011</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.868959903717041</v>
       </c>
       <c r="V252" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.9534803628921509</v>
       </c>
       <c r="W252" t="n">
-        <v>0.07185404002666473</v>
+        <v>0.007143707945942879</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.867455005645752</v>
       </c>
       <c r="V253" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.5072035193443298</v>
       </c>
       <c r="W253" t="n">
-        <v>0.06171083822846413</v>
+        <v>0.1297811269760132</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9238629341125488</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6210076808929443</v>
+        <v>1.053669214248657</v>
       </c>
       <c r="W254" t="n">
-        <v>0.0917213037610054</v>
+        <v>0.01684967055916786</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8743441104888916</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.9494491815567017</v>
       </c>
       <c r="W255" t="n">
-        <v>0.192124143242836</v>
+        <v>0.005640771705657244</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8645691871643066</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.9527402520179749</v>
       </c>
       <c r="W256" t="n">
-        <v>0.04656358808279037</v>
+        <v>0.007774136494845152</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.872567892074585</v>
       </c>
       <c r="V257" t="n">
-        <v>0.56879723072052</v>
+        <v>0.9504368901252747</v>
       </c>
       <c r="W257" t="n">
-        <v>0.09227661788463593</v>
+        <v>0.006063580978661776</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9221258163452148</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.5166666507720947</v>
       </c>
       <c r="W258" t="n">
-        <v>0.09184496104717255</v>
+        <v>0.1643971353769302</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8719618320465088</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.4681656956672668</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1712071895599365</v>
+        <v>0.1630513221025467</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8595550060272217</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.5251973867416382</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1389659643173218</v>
+        <v>0.1117950156331062</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8714239597320557</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.884921133518219</v>
       </c>
       <c r="W261" t="n">
-        <v>0.09122332185506821</v>
+        <v>0.0001821736950660124</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5803899765014648</v>
       </c>
       <c r="V262" t="n">
-        <v>0.812067985534668</v>
+        <v>0.9094352722167969</v>
       </c>
       <c r="W262" t="n">
-        <v>0.05367470160126686</v>
+        <v>0.1082708090543747</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5359330177307129</v>
       </c>
       <c r="V263" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.8770681023597717</v>
       </c>
       <c r="W263" t="n">
-        <v>0.02462601475417614</v>
+        <v>0.1163731440901756</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5241751670837402</v>
       </c>
       <c r="V264" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.477395236492157</v>
       </c>
       <c r="W264" t="n">
-        <v>0.01027691178023815</v>
+        <v>0.002188361948356032</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5201199054718018</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.4809465408325195</v>
       </c>
       <c r="W265" t="n">
-        <v>0.01527380850166082</v>
+        <v>0.001534552546218038</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5223581790924072</v>
       </c>
       <c r="V266" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.4782217144966125</v>
       </c>
       <c r="W266" t="n">
-        <v>0.0180843248963356</v>
+        <v>0.001948027522303164</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5622568130493164</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.9008219838142395</v>
       </c>
       <c r="W267" t="n">
-        <v>0.01289043668657541</v>
+        <v>0.1146263778209686</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.522320032119751</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.8811464905738831</v>
       </c>
       <c r="W268" t="n">
-        <v>0.002111747162416577</v>
+        <v>0.1287564337253571</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5264480113983154</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.526761531829834</v>
       </c>
       <c r="W269" t="n">
-        <v>0.004608807619661093</v>
+        <v>9.829506097958074e-08</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5224809646606445</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.4888363480567932</v>
       </c>
       <c r="W270" t="n">
-        <v>0.000660534598864615</v>
+        <v>0.001131960190832615</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5219118595123291</v>
       </c>
       <c r="V271" t="n">
-        <v>0.561543881893158</v>
+        <v>0.5295587778091431</v>
       </c>
       <c r="W271" t="n">
-        <v>0.001570697175338864</v>
+        <v>5.847535794600844e-05</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5325601100921631</v>
       </c>
       <c r="V272" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.4685304164886475</v>
       </c>
       <c r="W272" t="n">
-        <v>0.0008334830054081976</v>
+        <v>0.004099801648408175</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5309820175170898</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.5363416075706482</v>
       </c>
       <c r="W273" t="n">
-        <v>0.01223709899932146</v>
+        <v>2.872520599339623e-05</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5350761413574219</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.4807767271995544</v>
       </c>
       <c r="W274" t="n">
-        <v>0.006402133964002132</v>
+        <v>0.002948426408693194</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5228230953216553</v>
       </c>
       <c r="V275" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.9374015331268311</v>
       </c>
       <c r="W275" t="n">
-        <v>0.01841843314468861</v>
+        <v>0.1718752831220627</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5218360424041748</v>
       </c>
       <c r="V276" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.9066596627235413</v>
       </c>
       <c r="W276" t="n">
-        <v>0.01046605594456196</v>
+        <v>0.1480892151594162</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5197210311889648</v>
       </c>
       <c r="V277" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.5011703968048096</v>
       </c>
       <c r="W277" t="n">
-        <v>0.04527055844664574</v>
+        <v>0.0003441260487306863</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5819978713989258</v>
       </c>
       <c r="V278" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.4887568354606628</v>
       </c>
       <c r="W278" t="n">
-        <v>0.001904940232634544</v>
+        <v>0.008693890646100044</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.52565598487854</v>
       </c>
       <c r="V279" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.5063982009887695</v>
       </c>
       <c r="W279" t="n">
-        <v>0.005091418977826834</v>
+        <v>0.0003708622534759343</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5217568874359131</v>
       </c>
       <c r="V280" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.5172232389450073</v>
       </c>
       <c r="W280" t="n">
-        <v>0.01857940293848515</v>
+        <v>2.055396907962859e-05</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5200741291046143</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.8980714082717896</v>
       </c>
       <c r="W281" t="n">
-        <v>0.0003347328456584364</v>
+        <v>0.1428819447755814</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.3997402191162109</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.9425413608551025</v>
       </c>
       <c r="W282" t="n">
-        <v>0.0471474826335907</v>
+        <v>0.2946330904960632</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3985359668731689</v>
       </c>
       <c r="V283" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.5157994627952576</v>
       </c>
       <c r="W283" t="n">
-        <v>0.005833778996020555</v>
+        <v>0.01375072728842497</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3998808860778809</v>
       </c>
       <c r="V284" t="n">
-        <v>0.505409836769104</v>
+        <v>0.929544985294342</v>
       </c>
       <c r="W284" t="n">
-        <v>0.01113635953515768</v>
+        <v>0.2805440723896027</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3987290859222412</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.5295433402061462</v>
       </c>
       <c r="W285" t="n">
-        <v>0.04953929036855698</v>
+        <v>0.01711236871778965</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3982019424438477</v>
       </c>
       <c r="V286" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.9605410099029541</v>
       </c>
       <c r="W286" t="n">
-        <v>0.05093404278159142</v>
+        <v>0.3162252306938171</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3971350193023682</v>
       </c>
       <c r="V287" t="n">
-        <v>0.480756551027298</v>
+        <v>0.9031447768211365</v>
       </c>
       <c r="W287" t="n">
-        <v>0.006992560345679522</v>
+        <v>0.2560458779335022</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.396536111831665</v>
       </c>
       <c r="V288" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.4915287494659424</v>
       </c>
       <c r="W288" t="n">
-        <v>0.176018550992012</v>
+        <v>0.009023601189255714</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4056761264801025</v>
       </c>
       <c r="V289" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.903215229511261</v>
       </c>
       <c r="W289" t="n">
-        <v>0.00452500581741333</v>
+        <v>0.2475451529026031</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.4446420669555664</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.4887828826904297</v>
       </c>
       <c r="W290" t="n">
-        <v>7.426011870848015e-05</v>
+        <v>0.001948411576449871</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3968877792358398</v>
       </c>
       <c r="V291" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.5919426083564758</v>
       </c>
       <c r="W291" t="n">
-        <v>0.007139623165130615</v>
+        <v>0.03804638609290123</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.398813009262085</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.9812149405479431</v>
       </c>
       <c r="W292" t="n">
-        <v>0.003075223881751299</v>
+        <v>0.3391920030117035</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.397514820098877</v>
       </c>
       <c r="V293" t="n">
-        <v>0.43533855676651</v>
+        <v>0.5322629809379578</v>
       </c>
       <c r="W293" t="n">
-        <v>0.001430635107681155</v>
+        <v>0.01815706677734852</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3943510055541992</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.48089998960495</v>
       </c>
       <c r="W294" t="n">
-        <v>0.005141886882483959</v>
+        <v>0.00749072665348649</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3956589698791504</v>
       </c>
       <c r="V295" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.9316995739936829</v>
       </c>
       <c r="W295" t="n">
-        <v>0.04978848248720169</v>
+        <v>0.2873395383358002</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.448112964630127</v>
       </c>
       <c r="V296" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.8887727856636047</v>
       </c>
       <c r="W296" t="n">
-        <v>0.03821415081620216</v>
+        <v>0.1941810846328735</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.405472993850708</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.5088576078414917</v>
       </c>
       <c r="W297" t="n">
-        <v>0.003440264845266938</v>
+        <v>0.01068837847560644</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3981130123138428</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.5413734912872314</v>
       </c>
       <c r="W298" t="n">
-        <v>0.003103031544014812</v>
+        <v>0.02052356489002705</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3922698497772217</v>
       </c>
       <c r="V299" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.5153022408485413</v>
       </c>
       <c r="W299" t="n">
-        <v>0.0001886992540676147</v>
+        <v>0.01513696927577257</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3984370231628418</v>
       </c>
       <c r="V300" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.8883721828460693</v>
       </c>
       <c r="W300" t="n">
-        <v>0.02900984883308411</v>
+        <v>0.2400364577770233</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3982150554656982</v>
       </c>
       <c r="V301" t="n">
-        <v>0.473930835723877</v>
+        <v>0.9022888541221619</v>
       </c>
       <c r="W301" t="n">
-        <v>0.005732879508286715</v>
+        <v>0.2540903985500336</v>
       </c>
     </row>
     <row r="302" spans="1:23">
